--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -609,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>33770</v>
+        <v>33904</v>
       </c>
       <c r="D2">
-        <v>48980647</v>
+        <v>49175127</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -635,10 +635,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>82719</v>
+        <v>83038</v>
       </c>
       <c r="D3">
-        <v>121527461</v>
+        <v>121991959</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -661,10 +661,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>28273</v>
+        <v>28414</v>
       </c>
       <c r="D4">
-        <v>41937316</v>
+        <v>42143697</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -687,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>7701</v>
+        <v>7743</v>
       </c>
       <c r="D5">
-        <v>11460343</v>
+        <v>11521714</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -713,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="D6">
-        <v>2356128</v>
+        <v>2365128</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -739,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>160093</v>
+        <v>163093</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -817,10 +817,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>36766</v>
+        <v>36925</v>
       </c>
       <c r="D10">
-        <v>50181730</v>
+        <v>50396966</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -843,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8711</v>
+        <v>8743</v>
       </c>
       <c r="D11">
-        <v>12629046</v>
+        <v>12672550</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -869,10 +869,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>23881</v>
+        <v>23957</v>
       </c>
       <c r="D12">
-        <v>35091902</v>
+        <v>35204496</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -895,10 +895,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>7568</v>
+        <v>7606</v>
       </c>
       <c r="D13">
-        <v>11251748</v>
+        <v>11308298</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -921,10 +921,10 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>1892</v>
+        <v>1906</v>
       </c>
       <c r="D14">
-        <v>2814211</v>
+        <v>2835211</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -947,10 +947,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D15">
-        <v>492850</v>
+        <v>495964</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1025,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>9161</v>
+        <v>9205</v>
       </c>
       <c r="D18">
-        <v>12205918</v>
+        <v>12264409</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1051,10 +1051,10 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>12210</v>
+        <v>12253</v>
       </c>
       <c r="D19">
-        <v>17663120</v>
+        <v>17724167</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1077,10 +1077,10 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>29209</v>
+        <v>29306</v>
       </c>
       <c r="D20">
-        <v>42962130</v>
+        <v>43097864</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1103,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>9467</v>
+        <v>9494</v>
       </c>
       <c r="D21">
-        <v>14088397</v>
+        <v>14128387</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1129,10 +1129,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="D22">
-        <v>3523219</v>
+        <v>3529219</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1155,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D23">
-        <v>568842</v>
+        <v>576342</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1207,10 +1207,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>10572</v>
+        <v>10599</v>
       </c>
       <c r="D25">
-        <v>14244789</v>
+        <v>14279971</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1233,10 +1233,10 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>6944</v>
+        <v>6966</v>
       </c>
       <c r="D26">
-        <v>10080299</v>
+        <v>10109693</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1259,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>20697</v>
+        <v>20744</v>
       </c>
       <c r="D27">
-        <v>30433418</v>
+        <v>30500419</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1285,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>7182</v>
+        <v>7206</v>
       </c>
       <c r="D28">
-        <v>10693710</v>
+        <v>10729039</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -1311,10 +1311,10 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="D29">
-        <v>2624482</v>
+        <v>2636482</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1337,10 +1337,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D30">
-        <v>397915</v>
+        <v>402415</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1389,10 +1389,10 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>7479</v>
+        <v>7497</v>
       </c>
       <c r="D32">
-        <v>9953062</v>
+        <v>9970944</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1415,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>2691</v>
+        <v>2699</v>
       </c>
       <c r="D33">
-        <v>3885059</v>
+        <v>3897059</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -1441,10 +1441,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>6785</v>
+        <v>6809</v>
       </c>
       <c r="D34">
-        <v>9923229</v>
+        <v>9957833</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1467,10 +1467,10 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>2748</v>
+        <v>2760</v>
       </c>
       <c r="D35">
-        <v>4068732</v>
+        <v>4086732</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1493,10 +1493,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D36">
-        <v>1078763</v>
+        <v>1087763</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1519,10 +1519,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D37">
-        <v>191304</v>
+        <v>194304</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1571,10 +1571,10 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>1996</v>
+        <v>2020</v>
       </c>
       <c r="D39">
-        <v>2695352</v>
+        <v>2726045</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -1597,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>15498</v>
+        <v>15551</v>
       </c>
       <c r="D40">
-        <v>22463713</v>
+        <v>22539995</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -1623,10 +1623,10 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>46623</v>
+        <v>46822</v>
       </c>
       <c r="D41">
-        <v>68452405</v>
+        <v>68741146</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1649,10 +1649,10 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>17432</v>
+        <v>17499</v>
       </c>
       <c r="D42">
-        <v>25908877</v>
+        <v>26005445</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
@@ -1675,10 +1675,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>4980</v>
+        <v>5011</v>
       </c>
       <c r="D43">
-        <v>7424918</v>
+        <v>7469155</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -1701,10 +1701,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="D44">
-        <v>1363775</v>
+        <v>1379950</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -1805,10 +1805,10 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>14906</v>
+        <v>14954</v>
       </c>
       <c r="D48">
-        <v>19983464</v>
+        <v>20042130</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
@@ -1831,10 +1831,10 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>1590</v>
+        <v>1599</v>
       </c>
       <c r="D49">
-        <v>2307348</v>
+        <v>2319448</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -1857,10 +1857,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>5625</v>
+        <v>5654</v>
       </c>
       <c r="D50">
-        <v>8287868</v>
+        <v>8326804</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -1883,10 +1883,10 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="D51">
-        <v>2968957</v>
+        <v>2977957</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -1909,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D52">
-        <v>960526</v>
+        <v>962026</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -1987,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>4684</v>
+        <v>4731</v>
       </c>
       <c r="D55">
-        <v>6491381</v>
+        <v>6555057</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -2013,10 +2013,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D56">
-        <v>890485</v>
+        <v>891985</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -2039,10 +2039,10 @@
         <v>9</v>
       </c>
       <c r="C57">
-        <v>1548</v>
+        <v>1559</v>
       </c>
       <c r="D57">
-        <v>2293448</v>
+        <v>2309923</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
@@ -2065,10 +2065,10 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D58">
-        <v>897419</v>
+        <v>906419</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
@@ -2169,10 +2169,10 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="D62">
-        <v>1244125</v>
+        <v>1250750</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -2195,10 +2195,10 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>13887</v>
+        <v>13915</v>
       </c>
       <c r="D63">
-        <v>20090734</v>
+        <v>20129217</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -2221,10 +2221,10 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>41231</v>
+        <v>41343</v>
       </c>
       <c r="D64">
-        <v>60443663</v>
+        <v>60605710</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -2247,10 +2247,10 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>14479</v>
+        <v>14537</v>
       </c>
       <c r="D65">
-        <v>21544736</v>
+        <v>21631516</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
@@ -2273,10 +2273,10 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>4113</v>
+        <v>4124</v>
       </c>
       <c r="D66">
-        <v>6131583</v>
+        <v>6148083</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -2299,10 +2299,10 @@
         <v>9</v>
       </c>
       <c r="C67">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D67">
-        <v>1126649</v>
+        <v>1130520</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -2325,10 +2325,10 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D68">
-        <v>93189</v>
+        <v>94689</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
@@ -2377,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>13813</v>
+        <v>13854</v>
       </c>
       <c r="D70">
-        <v>18315999</v>
+        <v>18365019</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
@@ -2403,10 +2403,10 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>3931</v>
+        <v>3946</v>
       </c>
       <c r="D71">
-        <v>5711157</v>
+        <v>5732057</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -2429,10 +2429,10 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>10256</v>
+        <v>10286</v>
       </c>
       <c r="D72">
-        <v>15080896</v>
+        <v>15124381</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -2455,10 +2455,10 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>3509</v>
+        <v>3519</v>
       </c>
       <c r="D73">
-        <v>5231819</v>
+        <v>5246526</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -2481,10 +2481,10 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D74">
-        <v>1791591</v>
+        <v>1793091</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -2585,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>4544</v>
+        <v>4570</v>
       </c>
       <c r="D78">
-        <v>6137365</v>
+        <v>6170443</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -2611,10 +2611,10 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>1306</v>
+        <v>1313</v>
       </c>
       <c r="D79">
-        <v>1886997</v>
+        <v>1897497</v>
       </c>
       <c r="E79" t="s">
         <v>20</v>
@@ -2637,10 +2637,10 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>4360</v>
+        <v>4381</v>
       </c>
       <c r="D80">
-        <v>6423602</v>
+        <v>6455062</v>
       </c>
       <c r="E80" t="s">
         <v>20</v>
@@ -2663,10 +2663,10 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="D81">
-        <v>2536432</v>
+        <v>2546932</v>
       </c>
       <c r="E81" t="s">
         <v>20</v>
@@ -2689,10 +2689,10 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D82">
-        <v>891641</v>
+        <v>897641</v>
       </c>
       <c r="E82" t="s">
         <v>20</v>
@@ -2715,10 +2715,10 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83">
-        <v>209569</v>
+        <v>211069</v>
       </c>
       <c r="E83" t="s">
         <v>20</v>
@@ -2793,10 +2793,10 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>2819</v>
+        <v>2839</v>
       </c>
       <c r="D86">
-        <v>3754395</v>
+        <v>3778957</v>
       </c>
       <c r="E86" t="s">
         <v>20</v>
@@ -2819,10 +2819,10 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D87">
-        <v>723659</v>
+        <v>728159</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -2897,10 +2897,10 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
@@ -2949,10 +2949,10 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>9745</v>
+        <v>9774</v>
       </c>
       <c r="D92">
-        <v>14187095</v>
+        <v>14229434</v>
       </c>
       <c r="E92" t="s">
         <v>22</v>
@@ -2975,10 +2975,10 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>26987</v>
+        <v>27088</v>
       </c>
       <c r="D93">
-        <v>39720529</v>
+        <v>39867767</v>
       </c>
       <c r="E93" t="s">
         <v>22</v>
@@ -3001,10 +3001,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>9029</v>
+        <v>9059</v>
       </c>
       <c r="D94">
-        <v>13436612</v>
+        <v>13481612</v>
       </c>
       <c r="E94" t="s">
         <v>22</v>
@@ -3027,10 +3027,10 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>2435</v>
+        <v>2444</v>
       </c>
       <c r="D95">
-        <v>3633899</v>
+        <v>3647399</v>
       </c>
       <c r="E95" t="s">
         <v>22</v>
@@ -3053,10 +3053,10 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D96">
-        <v>603749</v>
+        <v>605249</v>
       </c>
       <c r="E96" t="s">
         <v>22</v>
@@ -3131,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>8844</v>
+        <v>8875</v>
       </c>
       <c r="D99">
-        <v>11748509</v>
+        <v>11786200</v>
       </c>
       <c r="E99" t="s">
         <v>22</v>
@@ -3157,10 +3157,10 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>27449</v>
+        <v>27511</v>
       </c>
       <c r="D100">
-        <v>39664466</v>
+        <v>39754237</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -3183,10 +3183,10 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>60925</v>
+        <v>61094</v>
       </c>
       <c r="D101">
-        <v>89316353</v>
+        <v>89559023</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>19680</v>
+        <v>19749</v>
       </c>
       <c r="D102">
-        <v>29283168</v>
+        <v>29384531</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -3235,10 +3235,10 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>5429</v>
+        <v>5445</v>
       </c>
       <c r="D103">
-        <v>8094982</v>
+        <v>8118982</v>
       </c>
       <c r="E103" t="s">
         <v>23</v>
@@ -3261,10 +3261,10 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="D104">
-        <v>1392493</v>
+        <v>1401893</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -3287,10 +3287,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D105">
-        <v>72511</v>
+        <v>73358</v>
       </c>
       <c r="E105" t="s">
         <v>23</v>
@@ -3365,10 +3365,10 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>23314</v>
+        <v>23389</v>
       </c>
       <c r="D108">
-        <v>31303607</v>
+        <v>31398223</v>
       </c>
       <c r="E108" t="s">
         <v>23</v>
@@ -3391,10 +3391,10 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>31872</v>
+        <v>31996</v>
       </c>
       <c r="D109">
-        <v>46093983</v>
+        <v>46269732</v>
       </c>
       <c r="E109" t="s">
         <v>24</v>
@@ -3417,10 +3417,10 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>69440</v>
+        <v>69701</v>
       </c>
       <c r="D110">
-        <v>101745630</v>
+        <v>102117634</v>
       </c>
       <c r="E110" t="s">
         <v>24</v>
@@ -3443,10 +3443,10 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>21701</v>
+        <v>21791</v>
       </c>
       <c r="D111">
-        <v>32239968</v>
+        <v>32369780</v>
       </c>
       <c r="E111" t="s">
         <v>24</v>
@@ -3469,10 +3469,10 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>5674</v>
+        <v>5704</v>
       </c>
       <c r="D112">
-        <v>8443081</v>
+        <v>8486863</v>
       </c>
       <c r="E112" t="s">
         <v>24</v>
@@ -3495,10 +3495,10 @@
         <v>9</v>
       </c>
       <c r="C113">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D113">
-        <v>1445677</v>
+        <v>1457677</v>
       </c>
       <c r="E113" t="s">
         <v>24</v>
@@ -3521,10 +3521,10 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D114">
-        <v>67228</v>
+        <v>68728</v>
       </c>
       <c r="E114" t="s">
         <v>24</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="E115" t="s">
         <v>24</v>
@@ -3599,10 +3599,10 @@
         <v>9</v>
       </c>
       <c r="C117">
-        <v>28111</v>
+        <v>28197</v>
       </c>
       <c r="D117">
-        <v>37525195</v>
+        <v>37636643</v>
       </c>
       <c r="E117" t="s">
         <v>24</v>
@@ -3625,10 +3625,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>12009</v>
+        <v>12045</v>
       </c>
       <c r="D118">
-        <v>17422978</v>
+        <v>17474245</v>
       </c>
       <c r="E118" t="s">
         <v>25</v>
@@ -3651,10 +3651,10 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>29937</v>
+        <v>30028</v>
       </c>
       <c r="D119">
-        <v>44034090</v>
+        <v>44165716</v>
       </c>
       <c r="E119" t="s">
         <v>25</v>
@@ -3677,10 +3677,10 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>10620</v>
+        <v>10650</v>
       </c>
       <c r="D120">
-        <v>15792716</v>
+        <v>15837716</v>
       </c>
       <c r="E120" t="s">
         <v>25</v>
@@ -3703,10 +3703,10 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>2661</v>
+        <v>2674</v>
       </c>
       <c r="D121">
-        <v>3969870</v>
+        <v>3989370</v>
       </c>
       <c r="E121" t="s">
         <v>25</v>
@@ -3729,10 +3729,10 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D122">
-        <v>574490</v>
+        <v>584990</v>
       </c>
       <c r="E122" t="s">
         <v>25</v>
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <v>9848</v>
+        <v>9874</v>
       </c>
       <c r="D125">
-        <v>13237587</v>
+        <v>13268415</v>
       </c>
       <c r="E125" t="s">
         <v>25</v>
@@ -3833,10 +3833,10 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>31176</v>
+        <v>31280</v>
       </c>
       <c r="D126">
-        <v>45088263</v>
+        <v>45235774</v>
       </c>
       <c r="E126" t="s">
         <v>26</v>
@@ -3859,10 +3859,10 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>73712</v>
+        <v>73956</v>
       </c>
       <c r="D127">
-        <v>108144104</v>
+        <v>108495538</v>
       </c>
       <c r="E127" t="s">
         <v>26</v>
@@ -3885,10 +3885,10 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>22178</v>
+        <v>22267</v>
       </c>
       <c r="D128">
-        <v>32998022</v>
+        <v>33125553</v>
       </c>
       <c r="E128" t="s">
         <v>26</v>
@@ -3911,10 +3911,10 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>5689</v>
+        <v>5712</v>
       </c>
       <c r="D129">
-        <v>8495301</v>
+        <v>8529097</v>
       </c>
       <c r="E129" t="s">
         <v>26</v>
@@ -3937,10 +3937,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="D130">
-        <v>1741720</v>
+        <v>1749220</v>
       </c>
       <c r="E130" t="s">
         <v>26</v>
@@ -4015,10 +4015,10 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>26215</v>
+        <v>26275</v>
       </c>
       <c r="D133">
-        <v>35606561</v>
+        <v>35684768</v>
       </c>
       <c r="E133" t="s">
         <v>26</v>
@@ -4041,10 +4041,10 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>43683</v>
+        <v>43838</v>
       </c>
       <c r="D134">
-        <v>63672020</v>
+        <v>63898294</v>
       </c>
       <c r="E134" t="s">
         <v>27</v>
@@ -4067,10 +4067,10 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>127311</v>
+        <v>127780</v>
       </c>
       <c r="D135">
-        <v>187846437</v>
+        <v>188535363</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
@@ -4093,10 +4093,10 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>55884</v>
+        <v>56098</v>
       </c>
       <c r="D136">
-        <v>83339014</v>
+        <v>83654110</v>
       </c>
       <c r="E136" t="s">
         <v>27</v>
@@ -4119,10 +4119,10 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>17634</v>
+        <v>17705</v>
       </c>
       <c r="D137">
-        <v>26357591</v>
+        <v>26462934</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
@@ -4145,10 +4145,10 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>3736</v>
+        <v>3756</v>
       </c>
       <c r="D138">
-        <v>5583773</v>
+        <v>5613773</v>
       </c>
       <c r="E138" t="s">
         <v>27</v>
@@ -4171,10 +4171,10 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D139">
-        <v>297855</v>
+        <v>299355</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
@@ -4197,10 +4197,10 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D140">
-        <v>24405</v>
+        <v>25905</v>
       </c>
       <c r="E140" t="s">
         <v>27</v>
@@ -4327,10 +4327,10 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>43297</v>
+        <v>43448</v>
       </c>
       <c r="D145">
-        <v>59455892</v>
+        <v>59651182</v>
       </c>
       <c r="E145" t="s">
         <v>27</v>
